--- a/Documentation/ProjectDatabaseSchema.xlsx
+++ b/Documentation/ProjectDatabaseSchema.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAC\Project\Cdac-Project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejal Naik\Desktop\cdac_Project\Cdac-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBFBBF97-A13F-46E9-9AAC-2F35A8E05EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EBAF6A-2B9E-48A3-9883-5579DE2AD10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF33976-700D-4C25-9B98-68ED924E98C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="46">
   <si>
     <t>1. Role</t>
   </si>
@@ -121,6 +112,57 @@
   </si>
   <si>
     <t>15. Schemes</t>
+  </si>
+  <si>
+    <t>locid</t>
+  </si>
+  <si>
+    <t>locname</t>
+  </si>
+  <si>
+    <t>payid</t>
+  </si>
+  <si>
+    <t>oid</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>NotNull</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>paydate</t>
+  </si>
+  <si>
+    <t>paymethod</t>
+  </si>
+  <si>
+    <t>paystatus</t>
+  </si>
+  <si>
+    <t>pvid</t>
+  </si>
+  <si>
+    <t>prodid</t>
+  </si>
+  <si>
+    <t>vid</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>varchar(225)</t>
   </si>
 </sst>
 </file>
@@ -160,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -218,31 +260,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +321,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D7EF82-BDA5-426B-BA27-27E3C64BA0E2}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,1196 +667,1210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
+      <c r="B44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>2</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E59" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>2</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>1</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>2</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
+        <v>2</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
         <v>3</v>
       </c>
+      <c r="B66" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
+        <v>4</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <v>5</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1</v>
-      </c>
-      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="16"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="17"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3" t="s">
+      <c r="C83" s="5"/>
+      <c r="D83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2" t="s">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>2</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>2</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="3" t="s">
+      <c r="C84" s="5"/>
+      <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E84" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8" t="s">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E88" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9" t="s">
+      <c r="F88" s="8"/>
+      <c r="G88" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>1</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="3" t="s">
+      <c r="C89" s="5"/>
+      <c r="D89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2" t="s">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>2</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>2</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="3" t="s">
+      <c r="C90" s="5"/>
+      <c r="D90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E90" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="8" t="s">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E94" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9" t="s">
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>1</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="3" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2" t="s">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>2</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="3" t="s">
+      <c r="C96" s="5"/>
+      <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E96" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="9"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>1</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>2</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
+  <mergeCells count="177">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="E70:F70"/>
     <mergeCell ref="G70:H70"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A12:H12"/>
@@ -1793,6 +1895,144 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
